--- a/runs/run178/NotionalETEOutput178.xlsx
+++ b/runs/run178/NotionalETEOutput178.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT1_State_Update</t>
+    <t>Missile_HIGHWIND2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1_457.MISSILE_SOMERSAULT1_457</t>
+    <t>MISSILE_HIGHWIND2_381.MISSILE_HIGHWIND2_381</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1</t>
+    <t>MISSILE_HIGHWIND2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1500.181522433276</v>
+        <v>-1440.178255331774</v>
       </c>
       <c r="J2">
-        <v>2018.804204048207</v>
+        <v>1999.134858796781</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1511.025637163727</v>
+        <v>-1432.521944618356</v>
       </c>
       <c r="J3">
-        <v>1897.428272566735</v>
+        <v>1878.578374281329</v>
       </c>
       <c r="K3">
-        <v>310.0388619963765</v>
+        <v>311.0258689260163</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1419.681959775238</v>
+        <v>-1497.55331779269</v>
       </c>
       <c r="J4">
-        <v>1853.706727623272</v>
+        <v>1877.779790174806</v>
       </c>
       <c r="K4">
-        <v>610.4522526204993</v>
+        <v>610.609620482689</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1473.032490731765</v>
+        <v>-1394.208542087997</v>
       </c>
       <c r="J5">
-        <v>1926.332278023923</v>
+        <v>1764.219127755749</v>
       </c>
       <c r="K5">
-        <v>905.8095287502571</v>
+        <v>878.2429905560123</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1332.566315294322</v>
+        <v>-1427.09426905735</v>
       </c>
       <c r="J6">
-        <v>1821.907192583859</v>
+        <v>1809.967772193329</v>
       </c>
       <c r="K6">
-        <v>1164.12369810331</v>
+        <v>1111.107951439206</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1349.13312938906</v>
+        <v>-1349.990504932469</v>
       </c>
       <c r="J7">
-        <v>1797.247523962062</v>
+        <v>1821.189913789028</v>
       </c>
       <c r="K7">
-        <v>1382.776571451671</v>
+        <v>1326.513969136599</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1336.864596417548</v>
+        <v>-1370.861388249265</v>
       </c>
       <c r="J8">
-        <v>1748.804489524607</v>
+        <v>1669.977881953715</v>
       </c>
       <c r="K8">
-        <v>1608.273757225152</v>
+        <v>1629.30932598406</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-102.6966367823171</v>
+        <v>-99.3876557521953</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1255.484904244889</v>
+        <v>-1333.501530573134</v>
       </c>
       <c r="J9">
-        <v>1628.053548660884</v>
+        <v>1586.730705659954</v>
       </c>
       <c r="K9">
-        <v>1891.319599555893</v>
+        <v>1815.123485665191</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>213.2421869099202</v>
+        <v>223.1620498031258</v>
       </c>
       <c r="G10">
-        <v>-83.65816195831781</v>
+        <v>-86.33652050019479</v>
       </c>
       <c r="H10">
-        <v>897.5916530623651</v>
+        <v>854.5410596897246</v>
       </c>
       <c r="I10">
-        <v>-1229.686180629764</v>
+        <v>-1241.718403384715</v>
       </c>
       <c r="J10">
-        <v>1533.074400434015</v>
+        <v>1605.844961956803</v>
       </c>
       <c r="K10">
-        <v>1926.556512974873</v>
+        <v>1970.821121997524</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.6179110792582</v>
+        <v>172.95317867087</v>
       </c>
       <c r="G11">
-        <v>-69.52911527114098</v>
+        <v>-67.95232347134933</v>
       </c>
       <c r="H11">
-        <v>1036.820920280336</v>
+        <v>1088.226890933232</v>
       </c>
       <c r="I11">
-        <v>-1253.699242512614</v>
+        <v>-1225.292009181238</v>
       </c>
       <c r="J11">
-        <v>1611.130972323636</v>
+        <v>1541.349226585767</v>
       </c>
       <c r="K11">
-        <v>2130.036680952694</v>
+        <v>2260.750623925313</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.2329693120961</v>
+        <v>135.5236876905932</v>
       </c>
       <c r="G12">
-        <v>-49.98877093798693</v>
+        <v>-50.9385709193233</v>
       </c>
       <c r="H12">
-        <v>1179.351286227001</v>
+        <v>1136.533229541941</v>
       </c>
       <c r="I12">
-        <v>-1121.661626248257</v>
+        <v>-1208.503282137558</v>
       </c>
       <c r="J12">
-        <v>1480.799675121312</v>
+        <v>1456.168964475425</v>
       </c>
       <c r="K12">
-        <v>2262.635704631596</v>
+        <v>2265.769178557541</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>116.1186659134758</v>
+        <v>122.9482945314664</v>
       </c>
       <c r="G13">
-        <v>-35.62483583054954</v>
+        <v>-35.57187877262996</v>
       </c>
       <c r="H13">
-        <v>1249.643185186441</v>
+        <v>1264.642686455709</v>
       </c>
       <c r="I13">
-        <v>-1081.280945266431</v>
+        <v>-1140.554314879041</v>
       </c>
       <c r="J13">
-        <v>1418.438527175862</v>
+        <v>1454.572858116063</v>
       </c>
       <c r="K13">
-        <v>2427.33819177051</v>
+        <v>2566.153350352757</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>104.1694836470203</v>
+        <v>108.121300717451</v>
       </c>
       <c r="G14">
-        <v>-18.21633075839871</v>
+        <v>-18.07101426293837</v>
       </c>
       <c r="H14">
-        <v>1306.024476514194</v>
+        <v>1313.983154941007</v>
       </c>
       <c r="I14">
-        <v>-1054.217029821306</v>
+        <v>-1083.884634411903</v>
       </c>
       <c r="J14">
-        <v>1396.404535056959</v>
+        <v>1380.092844525924</v>
       </c>
       <c r="K14">
-        <v>2680.105021063223</v>
+        <v>2736.99710723907</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>102.0374361748502</v>
+        <v>101.5853048128138</v>
       </c>
       <c r="G15">
-        <v>-0.9136895724985665</v>
+        <v>-0.9020359912611738</v>
       </c>
       <c r="H15">
-        <v>1421.325354903232</v>
+        <v>1417.485643242622</v>
       </c>
       <c r="I15">
-        <v>-1029.190503861882</v>
+        <v>-1099.182293643875</v>
       </c>
       <c r="J15">
-        <v>1342.884949804738</v>
+        <v>1421.066174381025</v>
       </c>
       <c r="K15">
-        <v>2702.148356713125</v>
+        <v>2877.426055881652</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.76191648058784</v>
+        <v>91.22765272694301</v>
       </c>
       <c r="G16">
-        <v>15.58885285660778</v>
+        <v>14.96731508461788</v>
       </c>
       <c r="H16">
-        <v>1406.017481636007</v>
+        <v>1399.971767847627</v>
       </c>
       <c r="I16">
-        <v>-1043.236996149983</v>
+        <v>-1018.958789052931</v>
       </c>
       <c r="J16">
-        <v>1267.436871745085</v>
+        <v>1301.320192345931</v>
       </c>
       <c r="K16">
-        <v>2768.68261014669</v>
+        <v>2954.983915588885</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.17900493514394</v>
+        <v>84.35691949909217</v>
       </c>
       <c r="G17">
-        <v>31.90589817472474</v>
+        <v>32.63568501708988</v>
       </c>
       <c r="H17">
-        <v>1539.080152858541</v>
+        <v>1530.804237078578</v>
       </c>
       <c r="I17">
-        <v>-944.8060861834276</v>
+        <v>-999.2169047150903</v>
       </c>
       <c r="J17">
-        <v>1221.753159176255</v>
+        <v>1256.009321618391</v>
       </c>
       <c r="K17">
-        <v>3100.559382672127</v>
+        <v>2832.736943108537</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.21628987421057</v>
+        <v>85.86051908546797</v>
       </c>
       <c r="G18">
-        <v>49.29540145644745</v>
+        <v>47.67972968063245</v>
       </c>
       <c r="H18">
-        <v>1551.942144234903</v>
+        <v>1482.524154315462</v>
       </c>
       <c r="I18">
-        <v>-936.1584845337694</v>
+        <v>-908.8902763874722</v>
       </c>
       <c r="J18">
-        <v>1242.592103996755</v>
+        <v>1259.041595069609</v>
       </c>
       <c r="K18">
-        <v>3004.601531758525</v>
+        <v>2984.707373185983</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>81.47109172001961</v>
+        <v>77.95920888359205</v>
       </c>
       <c r="G19">
-        <v>63.79375844854439</v>
+        <v>62.9801271282541</v>
       </c>
       <c r="H19">
-        <v>1478.166755046231</v>
+        <v>1605.594200932584</v>
       </c>
       <c r="I19">
-        <v>-887.4855456491358</v>
+        <v>-884.0823672621381</v>
       </c>
       <c r="J19">
-        <v>1142.610998380185</v>
+        <v>1217.030366347499</v>
       </c>
       <c r="K19">
-        <v>2981.636631959543</v>
+        <v>3061.85717459055</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.55107756806758</v>
+        <v>76.79460290915814</v>
       </c>
       <c r="G20">
-        <v>83.7308272473399</v>
+        <v>80.52361530572726</v>
       </c>
       <c r="H20">
-        <v>1491.38094883495</v>
+        <v>1585.870218355029</v>
       </c>
       <c r="I20">
-        <v>-825.1841923587991</v>
+        <v>-865.3298387320725</v>
       </c>
       <c r="J20">
-        <v>1136.358729571818</v>
+        <v>1134.69232859379</v>
       </c>
       <c r="K20">
-        <v>3257.308402797684</v>
+        <v>3018.644902175988</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.10405103460812</v>
+        <v>68.59219762056115</v>
       </c>
       <c r="G21">
-        <v>100.4787460989475</v>
+        <v>93.73662439264376</v>
       </c>
       <c r="H21">
-        <v>1522.919568861785</v>
+        <v>1578.158136343812</v>
       </c>
       <c r="I21">
-        <v>-760.5531513423506</v>
+        <v>-774.4113833268543</v>
       </c>
       <c r="J21">
-        <v>1074.646231928077</v>
+        <v>1084.65499048635</v>
       </c>
       <c r="K21">
-        <v>3248.626070186836</v>
+        <v>3158.788034394411</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.46789202818044</v>
+        <v>67.32556508399475</v>
       </c>
       <c r="G22">
-        <v>109.1293152939022</v>
+        <v>111.301206504534</v>
       </c>
       <c r="H22">
-        <v>1575.290067869558</v>
+        <v>1611.382677547158</v>
       </c>
       <c r="I22">
-        <v>-747.218828151819</v>
+        <v>-781.6584248071414</v>
       </c>
       <c r="J22">
-        <v>982.676160354267</v>
+        <v>1040.891955333583</v>
       </c>
       <c r="K22">
-        <v>3059.509462090415</v>
+        <v>3112.841206676521</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.00893079044907</v>
+        <v>67.29264969527715</v>
       </c>
       <c r="G23">
-        <v>134.7371444052375</v>
+        <v>134.3555657701772</v>
       </c>
       <c r="H23">
-        <v>1647.084851396609</v>
+        <v>1621.919785601262</v>
       </c>
       <c r="I23">
-        <v>-697.2918001276784</v>
+        <v>-717.056684653732</v>
       </c>
       <c r="J23">
-        <v>959.0394836048878</v>
+        <v>930.261208302763</v>
       </c>
       <c r="K23">
-        <v>3333.695500013398</v>
+        <v>3065.009069551761</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.19503725307109</v>
+        <v>62.42027530640695</v>
       </c>
       <c r="G24">
-        <v>148.8685624511628</v>
+        <v>152.8956628812377</v>
       </c>
       <c r="H24">
-        <v>1669.254426750003</v>
+        <v>1658.721896766559</v>
       </c>
       <c r="I24">
-        <v>-679.6821026055538</v>
+        <v>-675.2109042703628</v>
       </c>
       <c r="J24">
-        <v>903.8560663728623</v>
+        <v>902.1893682192642</v>
       </c>
       <c r="K24">
-        <v>3207.699870659225</v>
+        <v>3267.13843145655</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.14915854724771</v>
+        <v>59.89025700210583</v>
       </c>
       <c r="G25">
-        <v>158.9232876680987</v>
+        <v>172.3959201387939</v>
       </c>
       <c r="H25">
-        <v>1723.238713924283</v>
+        <v>1693.598950312758</v>
       </c>
       <c r="I25">
-        <v>-625.5548804223092</v>
+        <v>-574.5411382286295</v>
       </c>
       <c r="J25">
-        <v>847.5937095398282</v>
+        <v>861.1661701346791</v>
       </c>
       <c r="K25">
-        <v>3261.333281518348</v>
+        <v>3068.628301584996</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.45765346794312</v>
+        <v>61.0048944561368</v>
       </c>
       <c r="G26">
-        <v>173.979612231859</v>
+        <v>177.1998140004159</v>
       </c>
       <c r="H26">
-        <v>1649.331991137154</v>
+        <v>1619.562422599943</v>
       </c>
       <c r="I26">
-        <v>-532.171269092746</v>
+        <v>-553.2177731668073</v>
       </c>
       <c r="J26">
-        <v>794.4255577995243</v>
+        <v>803.0260525036646</v>
       </c>
       <c r="K26">
-        <v>3109.309235932838</v>
+        <v>3204.793099393216</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.16637896129482</v>
+        <v>57.27450965382824</v>
       </c>
       <c r="G27">
-        <v>200.0173191511822</v>
+        <v>204.7459037133088</v>
       </c>
       <c r="H27">
-        <v>1791.997097154848</v>
+        <v>1704.059989098957</v>
       </c>
       <c r="I27">
-        <v>-487.7996326813166</v>
+        <v>-491.9498803646426</v>
       </c>
       <c r="J27">
-        <v>801.0581207193197</v>
+        <v>771.9772094874428</v>
       </c>
       <c r="K27">
-        <v>2950.29692714319</v>
+        <v>3181.358508759581</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.73705748977523</v>
+        <v>57.48417771933372</v>
       </c>
       <c r="G28">
-        <v>219.0265357019594</v>
+        <v>219.0865526564141</v>
       </c>
       <c r="H28">
-        <v>1795.248238208253</v>
+        <v>1804.673084281502</v>
       </c>
       <c r="I28">
-        <v>-445.2282298853547</v>
+        <v>-434.0873419797491</v>
       </c>
       <c r="J28">
-        <v>736.2318621019377</v>
+        <v>762.2973045561241</v>
       </c>
       <c r="K28">
-        <v>2934.975191243345</v>
+        <v>2878.762917734301</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.90760102964809</v>
+        <v>52.58582072533296</v>
       </c>
       <c r="G29">
-        <v>238.835362574402</v>
+        <v>238.2584325317234</v>
       </c>
       <c r="H29">
-        <v>1733.781977615075</v>
+        <v>1784.075409466028</v>
       </c>
       <c r="I29">
-        <v>-386.9130754588599</v>
+        <v>-398.0575817034145</v>
       </c>
       <c r="J29">
-        <v>682.7626408480929</v>
+        <v>663.0770152335706</v>
       </c>
       <c r="K29">
-        <v>2869.063531398157</v>
+        <v>2775.118367165456</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.34998980535092</v>
+        <v>54.41056982087716</v>
       </c>
       <c r="G30">
-        <v>247.5118421891061</v>
+        <v>242.3975201559475</v>
       </c>
       <c r="H30">
-        <v>1669.923023943298</v>
+        <v>1705.041210050214</v>
       </c>
       <c r="I30">
-        <v>-310.0707977049958</v>
+        <v>-323.5255494892531</v>
       </c>
       <c r="J30">
-        <v>610.1232029858965</v>
+        <v>617.2906862960186</v>
       </c>
       <c r="K30">
-        <v>2677.876425957226</v>
+        <v>2645.91041538324</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.0161477917877</v>
+        <v>54.08719298570006</v>
       </c>
       <c r="G31">
-        <v>253.649397762707</v>
+        <v>271.8975612991068</v>
       </c>
       <c r="H31">
-        <v>1680.989581933801</v>
+        <v>1778.755790730033</v>
       </c>
       <c r="I31">
-        <v>-275.6988088325389</v>
+        <v>-262.3790245023083</v>
       </c>
       <c r="J31">
-        <v>608.9540814286808</v>
+        <v>566.9190368438469</v>
       </c>
       <c r="K31">
-        <v>2574.700075835108</v>
+        <v>2532.366121936376</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.56029953919908</v>
+        <v>53.55249836008701</v>
       </c>
       <c r="G32">
-        <v>274.2066114614329</v>
+        <v>282.6712072635932</v>
       </c>
       <c r="H32">
-        <v>1868.206926480575</v>
+        <v>1829.361726751744</v>
       </c>
       <c r="I32">
-        <v>-201.0589828007158</v>
+        <v>-200.0677817210053</v>
       </c>
       <c r="J32">
-        <v>558.7256032678741</v>
+        <v>556.9786010740561</v>
       </c>
       <c r="K32">
-        <v>2552.523232074544</v>
+        <v>2576.224065753785</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.39084552191304</v>
+        <v>52.11491809021008</v>
       </c>
       <c r="G33">
-        <v>309.5798325270622</v>
+        <v>285.381335212044</v>
       </c>
       <c r="H33">
-        <v>1833.546567415008</v>
+        <v>1770.590481182042</v>
       </c>
       <c r="I33">
-        <v>-148.5926136667386</v>
+        <v>-140.4398202776295</v>
       </c>
       <c r="J33">
-        <v>468.6608668483329</v>
+        <v>507.0036674989007</v>
       </c>
       <c r="K33">
-        <v>2279.620004990624</v>
+        <v>2291.366112045022</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.21082100537057</v>
+        <v>49.82077162603016</v>
       </c>
       <c r="G34">
-        <v>327.1105236237485</v>
+        <v>307.9835576172977</v>
       </c>
       <c r="H34">
-        <v>1747.805639454071</v>
+        <v>1873.992902016309</v>
       </c>
       <c r="I34">
-        <v>-85.83161275640356</v>
+        <v>-86.45414635338327</v>
       </c>
       <c r="J34">
-        <v>448.8435193813324</v>
+        <v>463.8138580303819</v>
       </c>
       <c r="K34">
-        <v>2256.125522977779</v>
+        <v>2235.994020004781</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.58452970494533</v>
+        <v>48.3607021815059</v>
       </c>
       <c r="G35">
-        <v>339.0461366808682</v>
+        <v>325.1342099763824</v>
       </c>
       <c r="H35">
-        <v>1832.5414781363</v>
+        <v>1849.53187936733</v>
       </c>
       <c r="I35">
-        <v>-18.38259978356415</v>
+        <v>-19.41257213167849</v>
       </c>
       <c r="J35">
-        <v>380.5873805404454</v>
+        <v>400.2264077573337</v>
       </c>
       <c r="K35">
-        <v>2044.893141315646</v>
+        <v>2105.445729214304</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.07028928461929</v>
+        <v>48.8219575160034</v>
       </c>
       <c r="G36">
-        <v>334.8505073992588</v>
+        <v>360.0988950296507</v>
       </c>
       <c r="H36">
-        <v>1878.818671638102</v>
+        <v>1845.808250731379</v>
       </c>
       <c r="I36">
-        <v>48.68717806379816</v>
+        <v>47.47109872877731</v>
       </c>
       <c r="J36">
-        <v>353.6878512195746</v>
+        <v>334.152207715246</v>
       </c>
       <c r="K36">
-        <v>1799.053865665305</v>
+        <v>1869.324821229298</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.70628642588942</v>
+        <v>44.65245899528544</v>
       </c>
       <c r="G37">
-        <v>349.5662544256296</v>
+        <v>368.9423837772722</v>
       </c>
       <c r="H37">
-        <v>1885.898249979854</v>
+        <v>1871.333586065173</v>
       </c>
       <c r="I37">
-        <v>117.0514709274151</v>
+        <v>115.3496146667625</v>
       </c>
       <c r="J37">
-        <v>310.9537575272254</v>
+        <v>298.7343429317137</v>
       </c>
       <c r="K37">
-        <v>1672.712649842759</v>
+        <v>1608.521964159067</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.22301922852569</v>
+        <v>44.4692591388163</v>
       </c>
       <c r="G38">
-        <v>387.0383717720644</v>
+        <v>377.8963437249294</v>
       </c>
       <c r="H38">
-        <v>1835.13721888967</v>
+        <v>1887.706252647263</v>
       </c>
       <c r="I38">
-        <v>182.2229110816036</v>
+        <v>190.9196380247994</v>
       </c>
       <c r="J38">
-        <v>249.4805551264408</v>
+        <v>245.780408191165</v>
       </c>
       <c r="K38">
-        <v>1378.404487304546</v>
+        <v>1325.671211964435</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.66078322273384</v>
+        <v>43.52015156217956</v>
       </c>
       <c r="G39">
-        <v>398.4901272787727</v>
+        <v>382.8358645985498</v>
       </c>
       <c r="H39">
-        <v>1850.216314125039</v>
+        <v>1891.417851589433</v>
       </c>
       <c r="I39">
-        <v>259.9640930911763</v>
+        <v>259.7915974851866</v>
       </c>
       <c r="J39">
-        <v>201.2785228494428</v>
+        <v>201.4986515598697</v>
       </c>
       <c r="K39">
-        <v>1135.25072371701</v>
+        <v>1193.825652861139</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.43780679861246</v>
+        <v>42.1763584933541</v>
       </c>
       <c r="G40">
-        <v>396.6234479772574</v>
+        <v>408.3997062303189</v>
       </c>
       <c r="H40">
-        <v>1824.959368614982</v>
+        <v>1833.033107455318</v>
       </c>
       <c r="I40">
-        <v>326.5675023152062</v>
+        <v>342.5839682011396</v>
       </c>
       <c r="J40">
-        <v>154.2718080004709</v>
+        <v>153.2746517190722</v>
       </c>
       <c r="K40">
-        <v>934.0529047708542</v>
+        <v>917.8804102177045</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.26169080876284</v>
+        <v>43.09980118234972</v>
       </c>
       <c r="G41">
-        <v>419.9286441136936</v>
+        <v>417.2478153799349</v>
       </c>
       <c r="H41">
-        <v>1851.304338020887</v>
+        <v>1909.516893120532</v>
       </c>
       <c r="I41">
-        <v>422.7431132809725</v>
+        <v>394.1684820539934</v>
       </c>
       <c r="J41">
-        <v>100.4363082185346</v>
+        <v>104.7983640982881</v>
       </c>
       <c r="K41">
-        <v>630.0685611627102</v>
+        <v>621.317811004334</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.47556019898637</v>
+        <v>43.06494164899674</v>
       </c>
       <c r="G42">
-        <v>450.9318491213828</v>
+        <v>438.9467606690256</v>
       </c>
       <c r="H42">
-        <v>1975.855927566553</v>
+        <v>1868.233709164197</v>
       </c>
       <c r="I42">
-        <v>471.3240577381073</v>
+        <v>491.4273410316919</v>
       </c>
       <c r="J42">
-        <v>54.09131401099428</v>
+        <v>53.41296151572714</v>
       </c>
       <c r="K42">
-        <v>333.0615660065402</v>
+        <v>323.5122682587999</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.84188070695824</v>
+        <v>41.01697703792857</v>
       </c>
       <c r="G43">
-        <v>446.181921969993</v>
+        <v>468.3107055279476</v>
       </c>
       <c r="H43">
-        <v>1972.204271266888</v>
+        <v>1933.402445363034</v>
       </c>
       <c r="I43">
-        <v>579.0840006197612</v>
+        <v>580.0038324878211</v>
       </c>
       <c r="J43">
-        <v>5.041686227044822</v>
+        <v>5.339559680256967</v>
       </c>
       <c r="K43">
-        <v>33.17772131525931</v>
+        <v>33.76523082144535</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.48693328258521</v>
+        <v>43.63192295905242</v>
       </c>
       <c r="G44">
-        <v>455.2374686721536</v>
+        <v>482.0967571308357</v>
       </c>
       <c r="H44">
-        <v>1900.237780096306</v>
+        <v>1917.465821980117</v>
       </c>
       <c r="I44">
-        <v>612.0970463522633</v>
+        <v>659.1488101976317</v>
       </c>
       <c r="J44">
-        <v>-45.07411507840617</v>
+        <v>-43.33494166668292</v>
       </c>
       <c r="K44">
-        <v>-274.7756904246609</v>
+        <v>-291.57713860212</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.86112383765397</v>
+        <v>42.72959669833429</v>
       </c>
       <c r="G45">
-        <v>510.3465347515562</v>
+        <v>470.1053832951935</v>
       </c>
       <c r="H45">
-        <v>1890.439526231117</v>
+        <v>1871.294423552471</v>
       </c>
       <c r="I45">
-        <v>702.6393186898132</v>
+        <v>716.7067675701371</v>
       </c>
       <c r="J45">
-        <v>-87.93962387248818</v>
+        <v>-88.01140867848405</v>
       </c>
       <c r="K45">
-        <v>-613.0367686284004</v>
+        <v>-600.8632612527423</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.37111412102497</v>
+        <v>40.33343028767009</v>
       </c>
       <c r="G46">
-        <v>487.2373645261849</v>
+        <v>505.8098476845724</v>
       </c>
       <c r="H46">
-        <v>1933.610781607405</v>
+        <v>1937.485023638939</v>
       </c>
       <c r="I46">
-        <v>803.811014362028</v>
+        <v>783.7818820208563</v>
       </c>
       <c r="J46">
-        <v>-141.5356352580327</v>
+        <v>-135.187521625853</v>
       </c>
       <c r="K46">
-        <v>-1004.346473772702</v>
+        <v>-934.2252089331411</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.51291580896936</v>
+        <v>41.79569988230796</v>
       </c>
       <c r="G47">
-        <v>519.3009594531544</v>
+        <v>502.316379538836</v>
       </c>
       <c r="H47">
-        <v>1886.586142249716</v>
+        <v>1973.343994501435</v>
       </c>
       <c r="I47">
-        <v>890.3715616826837</v>
+        <v>856.7363353186702</v>
       </c>
       <c r="J47">
-        <v>-197.2467125665625</v>
+        <v>-187.8988050118471</v>
       </c>
       <c r="K47">
-        <v>-1334.750081638067</v>
+        <v>-1270.329247613786</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.27210382972888</v>
+        <v>40.62286263527049</v>
       </c>
       <c r="G48">
-        <v>531.733467143395</v>
+        <v>570.4171821030349</v>
       </c>
       <c r="H48">
-        <v>1969.504377794944</v>
+        <v>1901.703301572035</v>
       </c>
       <c r="I48">
-        <v>986.7640299322611</v>
+        <v>1016.027045589544</v>
       </c>
       <c r="J48">
-        <v>-230.3621615069626</v>
+        <v>-226.5744448568676</v>
       </c>
       <c r="K48">
-        <v>-1758.734465589524</v>
+        <v>-1715.717988915863</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.49490692594111</v>
+        <v>37.64724168428871</v>
       </c>
       <c r="G49">
-        <v>551.4851949167364</v>
+        <v>563.5459394420706</v>
       </c>
       <c r="H49">
-        <v>1982.30121121378</v>
+        <v>1938.245661062706</v>
       </c>
       <c r="I49">
-        <v>1054.991883237185</v>
+        <v>1024.134051511094</v>
       </c>
       <c r="J49">
-        <v>-299.5032465081104</v>
+        <v>-286.8988745084798</v>
       </c>
       <c r="K49">
-        <v>-2099.37509098692</v>
+        <v>-2146.942931305881</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.67634729068082</v>
+        <v>38.19495952817169</v>
       </c>
       <c r="G50">
-        <v>565.1424746734957</v>
+        <v>557.4505759602409</v>
       </c>
       <c r="H50">
-        <v>1901.149051177592</v>
+        <v>1896.130068369486</v>
       </c>
       <c r="I50">
-        <v>1181.199342096889</v>
+        <v>1139.554489568735</v>
       </c>
       <c r="J50">
-        <v>-347.5183839369138</v>
+        <v>-349.764304148805</v>
       </c>
       <c r="K50">
-        <v>-2386.129474693442</v>
+        <v>-2572.577011780279</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.29923716609976</v>
+        <v>37.88090475298626</v>
       </c>
       <c r="G51">
-        <v>587.1606863222893</v>
+        <v>622.8984249283436</v>
       </c>
       <c r="H51">
-        <v>1989.122301461015</v>
+        <v>2050.753776344691</v>
       </c>
       <c r="I51">
-        <v>1196.637206142235</v>
+        <v>1274.534151974676</v>
       </c>
       <c r="J51">
-        <v>-399.65204606391</v>
+        <v>-385.0865802537847</v>
       </c>
       <c r="K51">
-        <v>-2977.530227845775</v>
+        <v>-2889.970251165136</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.87031252938447</v>
+        <v>37.0482077424564</v>
       </c>
       <c r="G52">
-        <v>612.3163671509116</v>
+        <v>595.2759343132733</v>
       </c>
       <c r="H52">
-        <v>1922.811025926955</v>
+        <v>1975.01700085432</v>
       </c>
       <c r="I52">
-        <v>1346.884211131174</v>
+        <v>1302.091367345074</v>
       </c>
       <c r="J52">
-        <v>-424.4444378794375</v>
+        <v>-437.8346525485629</v>
       </c>
       <c r="K52">
-        <v>-3530.560405880347</v>
+        <v>-3336.09380607747</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.82414942290306</v>
+        <v>37.36606133590605</v>
       </c>
       <c r="G53">
-        <v>629.6124138498482</v>
+        <v>628.8224788974042</v>
       </c>
       <c r="H53">
-        <v>2066.047037945005</v>
+        <v>1886.496127152046</v>
       </c>
       <c r="I53">
-        <v>1510.939105423562</v>
+        <v>1502.868935256055</v>
       </c>
       <c r="J53">
-        <v>-483.634128902227</v>
+        <v>-503.0167524781713</v>
       </c>
       <c r="K53">
-        <v>-3967.31201486483</v>
+        <v>-3705.453865789695</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.99513277406824</v>
+        <v>38.29838771481936</v>
       </c>
       <c r="G54">
-        <v>640.7547391397974</v>
+        <v>674.6667359887369</v>
       </c>
       <c r="H54">
-        <v>1900.878415464377</v>
+        <v>2078.133013827082</v>
       </c>
       <c r="I54">
-        <v>1585.393974718631</v>
+        <v>1617.465592143559</v>
       </c>
       <c r="J54">
-        <v>-507.1277293076984</v>
+        <v>-533.2904024822126</v>
       </c>
       <c r="K54">
-        <v>-4288.263168770007</v>
+        <v>-4327.014707393328</v>
       </c>
     </row>
   </sheetData>
